--- a/biology/Botanique/Éleusine_d'Inde/Éleusine_d'Inde.xlsx
+++ b/biology/Botanique/Éleusine_d'Inde/Éleusine_d'Inde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89leusine_d%27Inde</t>
+          <t>Éleusine_d'Inde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eleusine indica, l'éleusine des Indes ou « pied-de-poule », est une espèce de plantes monocotylédones de la famille des Poaceae (graminées).
 C'est une herbe annuelle de petite taille, présente dans les régions tropicales et subtropicales dans la zone des 50 degrés de latitude. Elle se comporte comme une espèce envahissante dans certaines régions.
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89leusine_d%27Inde</t>
+          <t>Éleusine_d'Inde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eleusine indica est une plante herbacée annuelle  cespiteuse, ramifiée à la base, pouvant atteindre 30 à 60 cm de haut.
 Les tiges (chaumes) sont lisses, comprimées, à port dressé ou prostré.
@@ -527,8 +541,8 @@
 Les inflorescences sont des panicules à ramification digitée, comptant de deux à six épis sessiles, sans arête, de 4 à 15 cm de long, dont un est souvent inséré plus bas sur la tige.
 Le rachis des épis est nettement aplati, et les épillets lâchement imbriqués.
 Ces derniers, sessiles, de 3 à 4 mm de long, comptent de trois à quinze fleurs. Les glumes sont plutôt inégales, la glume inférieure est étroite, oblongue obtuse, à une nervure, la glume supérieure, longue de 3 mm, plutôt aiguë, est lancéolée ou ovale-lancéolée, parfois pliée en forme de carène, et compte trois nervures.
-Le péricarpe, persistant, très lâche et membraneux, renferme une graine rugueuse[2].
-La sous-espèce africana est tétraploïde, de plus grande taille, avec des épillets plus grands et une ligule à frange nettement ciliée[2].
+Le péricarpe, persistant, très lâche et membraneux, renferme une graine rugueuse.
+La sous-espèce africana est tétraploïde, de plus grande taille, avec des épillets plus grands et une ligule à frange nettement ciliée.
 </t>
         </is>
       </c>
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89leusine_d%27Inde</t>
+          <t>Éleusine_d'Inde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,9 +571,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (4 janvier 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (4 janvier 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Eleusine indica subsp. africana (Kenn.-O'Byrne) S.M. Phillips
 sous-espèce Eleusine indica subsp. coracana (L.) Lye
 sous-espèce Eleusine indica subsp. indica
